--- a/документы/дк flask.xlsx
+++ b/документы/дк flask.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Загрузки\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programms and data\Programms\FlaskProjectYaL\документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBD9446-BD63-48FB-96CA-50ECC96F2EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B6E2AF-FE2F-40D0-9252-408316C94BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21150" xr2:uid="{B5A5CFE5-E936-4A2F-B329-9C603218A4EF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>№ Пункта</t>
   </si>
@@ -93,6 +93,27 @@
   </si>
   <si>
     <t>Сергей К.</t>
+  </si>
+  <si>
+    <t>Регистрация + Авторизация пользователей</t>
+  </si>
+  <si>
+    <t>Реализовать регистрацию новых пользователей и авторизацию уже зарегистрированных, сделать работу с базами данных</t>
+  </si>
+  <si>
+    <t>Добавление данных проектов на сервер каждого пользователя, "покупка" пользователем сайтов</t>
+  </si>
+  <si>
+    <t>Реализовать покупку пользователем какого-либо сайта, после чего в его каталоге на сервере будет добавляться данные купленного им сайта</t>
+  </si>
+  <si>
+    <t>02.04.2025-03.02.2025</t>
+  </si>
+  <si>
+    <t>Доделать обратную связь пользователя с чат-ботом и разработчиком</t>
+  </si>
+  <si>
+    <t>Готовая версия Окна связи</t>
   </si>
 </sst>
 </file>
@@ -137,15 +158,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,150 +509,264 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4103BE0-5399-4FC1-BC61-45AEF5C460AB}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="2" max="2" width="68.85546875" customWidth="1"/>
-    <col min="3" max="3" width="53.5703125" customWidth="1"/>
+    <col min="3" max="3" width="62.7109375" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="3">
         <v>45758</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>45767</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>45772</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>45772</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3">
+        <v>45776</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3">
+        <v>45750</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
